--- a/数据分析/项目统计信息表（李亘杰）.xlsx
+++ b/数据分析/项目统计信息表（李亘杰）.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500" activeTab="8"/>
+    <workbookView windowWidth="28695" windowHeight="12630" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="项目信息统计" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702">
   <si>
     <t>项目名称</t>
   </si>
@@ -4109,6 +4109,20 @@
     <t>2year2mon</t>
   </si>
   <si>
+    <r>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve"> 02.python语言版本不兼容</t>
   </si>
   <si>
@@ -4121,6 +4135,20 @@
     <t xml:space="preserve">#297 </t>
   </si>
   <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个</t>
+    </r>
+  </si>
+  <si>
     <t>03.算法模型版本迭代向后不兼容</t>
   </si>
   <si>
@@ -4139,6 +4167,20 @@
     <t>#10</t>
   </si>
   <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个</t>
+    </r>
+  </si>
+  <si>
     <t>04.算法硬件平台，CPU,GPU,核数等不兼容</t>
   </si>
   <si>
@@ -4148,6 +4190,20 @@
     <t>#327</t>
   </si>
   <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个</t>
+    </r>
+  </si>
+  <si>
     <t>二.变量问题（变量传递，赋值，约束，数据格式，数据初始化，异常数据处理等）</t>
   </si>
   <si>
@@ -4211,6 +4267,20 @@
     <t>#436</t>
   </si>
   <si>
+    <r>
+      <t>76</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个</t>
+    </r>
+  </si>
+  <si>
     <t>三. 技术文档问题（更新不及时，接口调用出错等）</t>
   </si>
   <si>
@@ -4286,6 +4356,20 @@
     <t>#2291</t>
   </si>
   <si>
+    <r>
+      <t>34</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个</t>
+    </r>
+  </si>
+  <si>
     <t>四. 性能优化</t>
   </si>
   <si>
@@ -4298,6 +4382,35 @@
     <t>#95</t>
   </si>
   <si>
+    <t>#1278</t>
+  </si>
+  <si>
+    <t>#1894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2130 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5mon                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  </t>
+  </si>
+  <si>
+    <t>#3014</t>
+  </si>
+  <si>
+    <r>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个</t>
+    </r>
+  </si>
+  <si>
     <t>五.内存溢出，内存泄漏</t>
   </si>
   <si>
@@ -4307,36 +4420,38 @@
     <t>#2903</t>
   </si>
   <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个</t>
+    </r>
+  </si>
+  <si>
     <t>六.代码重构，代码结构优化</t>
   </si>
   <si>
     <t>#1137</t>
   </si>
   <si>
-    <t>#1278</t>
-  </si>
-  <si>
     <t xml:space="preserve">#1469 </t>
   </si>
   <si>
-    <t>#1894</t>
-  </si>
-  <si>
     <t xml:space="preserve"> #1905</t>
   </si>
   <si>
     <t>#2032</t>
   </si>
   <si>
-    <t xml:space="preserve">#2130 </t>
-  </si>
-  <si>
     <t>#2691</t>
   </si>
   <si>
-    <t xml:space="preserve">5mon                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  </t>
-  </si>
-  <si>
     <t>#2741</t>
   </si>
   <si>
@@ -4346,13 +4461,24 @@
     <t>#3044</t>
   </si>
   <si>
-    <t>#3014</t>
-  </si>
-  <si>
     <t>#3185</t>
   </si>
   <si>
     <t>#1831</t>
+  </si>
+  <si>
+    <r>
+      <t>35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4360,11 +4486,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -4572,9 +4698,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4587,8 +4712,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4639,6 +4765,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4651,25 +4789,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4687,13 +4813,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4717,13 +4849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4747,7 +4873,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4759,13 +4891,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4783,13 +4915,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4807,13 +4933,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4930,22 +5056,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
@@ -4955,10 +5081,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4979,7 +5105,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -4988,19 +5114,19 @@
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -5009,40 +5135,40 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5051,13 +5177,13 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7907,8 +8033,8 @@
   <sheetPr/>
   <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView topLeftCell="C133" workbookViewId="0">
-      <selection activeCell="I137" sqref="I137"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -11179,10 +11305,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D263"/>
+  <dimension ref="A1:D283"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="C63" sqref="A59:C63"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="D268" sqref="D268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -11486,13 +11612,16 @@
         <v>278</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
         <v>609</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>610</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -11521,7 +11650,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>580</v>
@@ -11542,7 +11671,7 @@
     <row r="41" spans="1:3">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>272</v>
@@ -11551,7 +11680,7 @@
     <row r="42" spans="1:3">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>281</v>
@@ -11575,13 +11704,16 @@
         <v>581</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>106</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -11596,7 +11728,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>580</v>
@@ -11635,7 +11767,7 @@
     <row r="52" spans="1:3">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>272</v>
@@ -11644,7 +11776,7 @@
     <row r="53" spans="1:3">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>549</v>
@@ -11660,7 +11792,7 @@
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>106</v>
@@ -11669,19 +11801,22 @@
     <row r="56" spans="1:3">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>106</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="58" spans="2:3">
@@ -11695,7 +11830,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>580</v>
@@ -11743,7 +11878,7 @@
     <row r="65" spans="1:3">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>87</v>
@@ -11752,7 +11887,7 @@
     <row r="66" spans="1:3">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>174</v>
@@ -11767,13 +11902,16 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:4">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>200</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -11808,7 +11946,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>580</v>
@@ -11819,7 +11957,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>255</v>
@@ -11867,7 +12005,7 @@
     <row r="81" spans="1:3">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>269</v>
@@ -11876,7 +12014,7 @@
     <row r="82" spans="1:3">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>281</v>
@@ -11912,7 +12050,7 @@
     <row r="86" spans="1:3">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>87</v>
@@ -11921,7 +12059,7 @@
     <row r="87" spans="1:3">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>281</v>
@@ -11939,7 +12077,7 @@
     <row r="89" spans="1:3">
       <c r="A89" s="2"/>
       <c r="B89" s="2" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>241</v>
@@ -11948,7 +12086,7 @@
     <row r="90" spans="1:3">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>87</v>
@@ -11984,7 +12122,7 @@
     <row r="94" spans="1:3">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>82</v>
@@ -12011,7 +12149,7 @@
     <row r="97" spans="1:3">
       <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>379</v>
@@ -12110,7 +12248,7 @@
     <row r="108" spans="1:3">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>138</v>
@@ -12272,7 +12410,7 @@
     <row r="126" spans="1:3">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>519</v>
@@ -12281,7 +12419,7 @@
     <row r="127" spans="1:3">
       <c r="A127" s="2"/>
       <c r="B127" s="2" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>284</v>
@@ -12335,16 +12473,16 @@
     <row r="133" spans="1:3">
       <c r="A133" s="2"/>
       <c r="B133" s="2" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>587</v>
@@ -12353,7 +12491,7 @@
     <row r="135" spans="1:3">
       <c r="A135" s="2"/>
       <c r="B135" s="4" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>200</v>
@@ -12371,7 +12509,7 @@
     <row r="137" spans="1:3">
       <c r="A137" s="2"/>
       <c r="B137" s="2" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>278</v>
@@ -12380,7 +12518,7 @@
     <row r="138" spans="1:3">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>281</v>
@@ -12416,7 +12554,7 @@
     <row r="142" spans="1:3">
       <c r="A142" s="2"/>
       <c r="B142" s="2" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>82</v>
@@ -12461,7 +12599,7 @@
     <row r="147" spans="1:3">
       <c r="A147" s="2"/>
       <c r="B147" s="2" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>93</v>
@@ -12494,13 +12632,16 @@
         <v>125</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:4">
       <c r="A151" s="2"/>
       <c r="B151" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>190</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -12510,7 +12651,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>580</v>
@@ -12522,7 +12663,7 @@
     <row r="154" spans="1:3">
       <c r="A154" s="2"/>
       <c r="B154" s="2" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>278</v>
@@ -12540,7 +12681,7 @@
     <row r="156" spans="1:3">
       <c r="A156" s="2"/>
       <c r="B156" s="2" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>82</v>
@@ -12585,7 +12726,7 @@
     <row r="161" spans="1:3">
       <c r="A161" s="2"/>
       <c r="B161" s="2" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>82</v>
@@ -12603,7 +12744,7 @@
     <row r="163" spans="1:3">
       <c r="A163" s="2"/>
       <c r="B163" s="2" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>82</v>
@@ -12612,7 +12753,7 @@
     <row r="164" spans="1:3">
       <c r="A164" s="2"/>
       <c r="B164" s="2" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>278</v>
@@ -12621,7 +12762,7 @@
     <row r="165" spans="1:4">
       <c r="A165" s="2"/>
       <c r="B165" s="2" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>138</v>
@@ -12631,7 +12772,7 @@
     <row r="166" spans="1:3">
       <c r="A166" s="2"/>
       <c r="B166" s="2" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>278</v>
@@ -12640,7 +12781,7 @@
     <row r="167" spans="1:3">
       <c r="A167" s="2"/>
       <c r="B167" s="2" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>281</v>
@@ -12649,7 +12790,7 @@
     <row r="168" spans="1:3">
       <c r="A168" s="2"/>
       <c r="B168" s="2" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>82</v>
@@ -12658,16 +12799,16 @@
     <row r="169" spans="1:3">
       <c r="A169" s="2"/>
       <c r="B169" s="2" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="2"/>
       <c r="B170" s="2" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>87</v>
@@ -12676,7 +12817,7 @@
     <row r="171" spans="1:3">
       <c r="A171" s="2"/>
       <c r="B171" s="2" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>82</v>
@@ -12685,7 +12826,7 @@
     <row r="172" spans="1:3">
       <c r="A172" s="2"/>
       <c r="B172" s="2" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>204</v>
@@ -12694,7 +12835,7 @@
     <row r="173" spans="1:3">
       <c r="A173" s="2"/>
       <c r="B173" s="2" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>345</v>
@@ -12703,7 +12844,7 @@
     <row r="174" spans="1:3">
       <c r="A174" s="2"/>
       <c r="B174" s="2" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>281</v>
@@ -12712,7 +12853,7 @@
     <row r="175" spans="1:3">
       <c r="A175" s="2"/>
       <c r="B175" s="2" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>412</v>
@@ -12721,7 +12862,7 @@
     <row r="176" spans="1:3">
       <c r="A176" s="2"/>
       <c r="B176" s="2" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>272</v>
@@ -12730,7 +12871,7 @@
     <row r="177" spans="1:3">
       <c r="A177" s="2"/>
       <c r="B177" s="2" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>281</v>
@@ -12739,7 +12880,7 @@
     <row r="178" spans="1:3">
       <c r="A178" s="2"/>
       <c r="B178" s="2" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>82</v>
@@ -12748,7 +12889,7 @@
     <row r="179" spans="1:3">
       <c r="A179" s="2"/>
       <c r="B179" s="2" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>233</v>
@@ -12757,7 +12898,7 @@
     <row r="180" spans="1:3">
       <c r="A180" s="2"/>
       <c r="B180" s="2" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>256</v>
@@ -12766,7 +12907,7 @@
     <row r="181" spans="1:3">
       <c r="A181" s="2"/>
       <c r="B181" s="2" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>284</v>
@@ -12784,7 +12925,7 @@
     <row r="183" spans="1:3">
       <c r="A183" s="2"/>
       <c r="B183" s="4" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>82</v>
@@ -12826,13 +12967,16 @@
         <v>125</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:4">
       <c r="A188" s="2"/>
       <c r="B188" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>129</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -12852,7 +12996,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>580</v>
@@ -12900,7 +13044,7 @@
     <row r="197" spans="1:3">
       <c r="A197" s="2"/>
       <c r="B197" s="2" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>93</v>
@@ -12909,7 +13053,7 @@
     <row r="198" spans="1:3">
       <c r="A198" s="2"/>
       <c r="B198" s="2" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>87</v>
@@ -12927,7 +13071,7 @@
     <row r="200" spans="1:3">
       <c r="A200" s="2"/>
       <c r="B200" s="2" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>204</v>
@@ -12935,320 +13079,310 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
+      <c r="B201" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
+      <c r="B202" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>581</v>
+      <c r="A203" s="2"/>
+      <c r="B203" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="2"/>
       <c r="B204" s="2" t="s">
-        <v>421</v>
+        <v>337</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="2"/>
       <c r="B205" s="2" t="s">
-        <v>545</v>
+        <v>340</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>546</v>
+        <v>125</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2"/>
       <c r="B206" s="2" t="s">
-        <v>675</v>
+        <v>355</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="2"/>
       <c r="B207" s="2" t="s">
-        <v>676</v>
+        <v>392</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>241</v>
+        <v>393</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2"/>
-      <c r="B208" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>581</v>
+      <c r="B208" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2"/>
       <c r="B209" s="2" t="s">
-        <v>145</v>
+        <v>468</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>87</v>
+        <v>278</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="2"/>
       <c r="B210" s="2" t="s">
-        <v>199</v>
+        <v>490</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>200</v>
+        <v>281</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2"/>
-      <c r="B211" s="3"/>
-      <c r="C211" s="3"/>
+      <c r="B211" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
+      <c r="B212" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>581</v>
+      <c r="A213" s="2"/>
+      <c r="B213" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2"/>
       <c r="B214" s="2" t="s">
-        <v>678</v>
+        <v>533</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>138</v>
+        <v>683</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2"/>
-      <c r="B215" s="2" t="s">
-        <v>283</v>
+      <c r="B215" s="4" t="s">
+        <v>684</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216" s="2"/>
       <c r="B216" s="2" t="s">
-        <v>296</v>
+        <v>564</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>125</v>
+        <v>281</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2"/>
-      <c r="B217" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>278</v>
-      </c>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="2"/>
-      <c r="B218" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="2"/>
-      <c r="B219" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2"/>
-      <c r="B220" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>338</v>
-      </c>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2"/>
-      <c r="B221" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2"/>
-      <c r="B222" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>269</v>
+      <c r="A223" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2"/>
       <c r="B224" s="2" t="s">
-        <v>680</v>
+        <v>421</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2"/>
       <c r="B225" s="2" t="s">
-        <v>355</v>
+        <v>545</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>200</v>
+        <v>546</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="2"/>
       <c r="B226" s="2" t="s">
-        <v>372</v>
+        <v>687</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="2"/>
       <c r="B227" s="2" t="s">
-        <v>392</v>
+        <v>688</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>393</v>
+        <v>241</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="2"/>
-      <c r="B228" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>284</v>
+      <c r="B228" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="2"/>
       <c r="B229" s="2" t="s">
-        <v>445</v>
+        <v>145</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230" s="2"/>
       <c r="B230" s="2" t="s">
-        <v>681</v>
+        <v>199</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>138</v>
+        <v>200</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="2"/>
-      <c r="B231" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>353</v>
-      </c>
+      <c r="B231" s="3"/>
+      <c r="C231" s="3"/>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="2"/>
-      <c r="B232" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>284</v>
-      </c>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="2"/>
-      <c r="B233" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>465</v>
+      <c r="A233" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2"/>
       <c r="B234" s="2" t="s">
-        <v>468</v>
+        <v>691</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>278</v>
+        <v>138</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2"/>
-      <c r="B235" s="4" t="s">
-        <v>683</v>
+      <c r="B235" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>82</v>
+        <v>284</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2"/>
       <c r="B236" s="2" t="s">
-        <v>490</v>
+        <v>329</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>281</v>
+        <v>82</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2"/>
       <c r="B237" s="2" t="s">
-        <v>492</v>
+        <v>340</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>125</v>
@@ -13257,70 +13391,70 @@
     <row r="238" spans="1:3">
       <c r="A238" s="2"/>
       <c r="B238" s="2" t="s">
-        <v>684</v>
+        <v>347</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>233</v>
+        <v>118</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2"/>
       <c r="B239" s="2" t="s">
-        <v>685</v>
+        <v>350</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2"/>
       <c r="B240" s="2" t="s">
-        <v>497</v>
+        <v>692</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>412</v>
+        <v>353</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2"/>
       <c r="B241" s="2" t="s">
-        <v>500</v>
+        <v>372</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2"/>
       <c r="B242" s="2" t="s">
-        <v>531</v>
+        <v>409</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>379</v>
+        <v>284</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2"/>
       <c r="B243" s="2" t="s">
-        <v>533</v>
+        <v>445</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>686</v>
+        <v>125</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2"/>
-      <c r="B244" s="4" t="s">
-        <v>687</v>
+      <c r="B244" s="2" t="s">
+        <v>693</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>549</v>
+        <v>353</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2"/>
       <c r="B245" s="2" t="s">
-        <v>688</v>
+        <v>441</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>284</v>
@@ -13329,153 +13463,218 @@
     <row r="246" spans="1:3">
       <c r="A246" s="2"/>
       <c r="B246" s="2" t="s">
-        <v>689</v>
+        <v>464</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>82</v>
+        <v>465</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2"/>
-      <c r="B247" s="2" t="s">
-        <v>558</v>
+      <c r="B247" s="4" t="s">
+        <v>694</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>200</v>
+        <v>82</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2"/>
       <c r="B248" s="2" t="s">
-        <v>560</v>
+        <v>695</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2"/>
-      <c r="B249" s="4" t="s">
-        <v>690</v>
+      <c r="B249" s="2" t="s">
+        <v>500</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>82</v>
+        <v>204</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2"/>
       <c r="B250" s="2" t="s">
-        <v>564</v>
+        <v>531</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>281</v>
+        <v>379</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2"/>
-      <c r="B251" s="2" t="s">
-        <v>691</v>
+      <c r="B251" s="4" t="s">
+        <v>696</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>278</v>
+        <v>549</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="2"/>
       <c r="B252" s="2" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="C252" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="2"/>
+      <c r="B253" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="2"/>
+      <c r="B254" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="2"/>
+      <c r="B255" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="2"/>
+      <c r="B256" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="2"/>
+      <c r="B257" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C257" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="253" spans="2:3">
-      <c r="B253" s="3" t="s">
+    <row r="258" spans="1:3">
+      <c r="A258" s="2"/>
+      <c r="B258" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="C258" s="3" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="254" spans="2:3">
-      <c r="B254" s="2" t="s">
+    <row r="259" spans="1:3">
+      <c r="A259" s="2"/>
+      <c r="B259" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="C259" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="255" spans="2:3">
-      <c r="B255" s="2" t="s">
+    <row r="260" spans="1:3">
+      <c r="A260" s="2"/>
+      <c r="B260" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C260" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="256" spans="2:3">
-      <c r="B256" s="2" t="s">
+    <row r="261" spans="1:3">
+      <c r="A261" s="2"/>
+      <c r="B261" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="C261" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="257" spans="2:3">
-      <c r="B257" s="4" t="s">
+    <row r="262" spans="1:3">
+      <c r="A262" s="2"/>
+      <c r="B262" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="C262" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="258" spans="2:3">
-      <c r="B258" s="2" t="s">
+    <row r="263" spans="1:3">
+      <c r="A263" s="2"/>
+      <c r="B263" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C263" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="259" spans="2:3">
-      <c r="B259" s="2" t="s">
+    <row r="264" spans="1:3">
+      <c r="A264" s="2"/>
+      <c r="B264" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="C264" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="260" spans="2:3">
-      <c r="B260" s="2" t="s">
+    <row r="265" spans="1:3">
+      <c r="A265" s="2"/>
+      <c r="B265" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="C265" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="261" spans="2:3">
-      <c r="B261" s="2" t="s">
+    <row r="266" spans="1:3">
+      <c r="A266" s="2"/>
+      <c r="B266" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="C266" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="262" spans="2:3">
-      <c r="B262" s="4" t="s">
+    <row r="267" spans="1:3">
+      <c r="A267" s="2"/>
+      <c r="B267" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C267" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="263" spans="2:3">
-      <c r="B263" s="2" t="s">
+    <row r="268" spans="1:4">
+      <c r="A268" s="2"/>
+      <c r="B268" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C263" s="2" t="s">
+      <c r="C268" s="2" t="s">
         <v>190</v>
       </c>
+      <c r="D268" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="2"/>
+    </row>
+    <row r="283" spans="4:4">
+      <c r="D283" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>

--- a/数据分析/项目统计信息表（李亘杰）.xlsx
+++ b/数据分析/项目统计信息表（李亘杰）.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" tabRatio="500" activeTab="8"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="项目信息统计" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706">
   <si>
     <t>项目名称</t>
   </si>
@@ -4022,6 +4022,18 @@
     <t>time</t>
   </si>
   <si>
+    <t>commit</t>
+  </si>
+  <si>
+    <t>changed files</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Sub</t>
+  </si>
+  <si>
     <t xml:space="preserve">#1113 </t>
   </si>
   <si>
@@ -4110,6 +4122,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>30</t>
     </r>
     <r>
@@ -4136,6 +4154,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>6</t>
     </r>
     <r>
@@ -4168,6 +4192,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>8</t>
     </r>
     <r>
@@ -4191,6 +4221,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>7</t>
     </r>
     <r>
@@ -4268,6 +4304,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>76</t>
     </r>
     <r>
@@ -4357,6 +4399,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>34</t>
     </r>
     <r>
@@ -4398,6 +4446,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>24</t>
     </r>
     <r>
@@ -4421,6 +4475,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>5</t>
     </r>
     <r>
@@ -4468,6 +4528,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>35</t>
     </r>
     <r>
@@ -4486,11 +4552,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -4698,8 +4764,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4712,9 +4779,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4765,18 +4831,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4789,13 +4843,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4813,19 +4879,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4849,7 +4909,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4873,13 +4939,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4891,13 +4951,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4915,7 +4975,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4933,13 +4999,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5056,22 +5122,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
@@ -5081,10 +5147,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5105,7 +5171,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -5114,19 +5180,19 @@
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -5135,40 +5201,40 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5177,13 +5243,13 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8033,8 +8099,8 @@
   <sheetPr/>
   <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8084,14 +8150,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" ht="37.5" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>247</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -11294,7 +11360,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://github.com/scikit-learn/scikit-learn"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://github.com/scikit-learn/scikit-learn" tooltip="https://github.com/scikit-learn/scikit-learn"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -11305,18 +11371,20 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D283"/>
+  <dimension ref="A1:G283"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="D268" sqref="D268"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="70.2592592592593" customWidth="1"/>
     <col min="2" max="2" width="12.6074074074074" customWidth="1"/>
     <col min="3" max="3" width="10.2518518518519" customWidth="1"/>
-    <col min="4" max="1025" width="9.34074074074074" customWidth="1"/>
+    <col min="4" max="4" width="9.34074074074074" customWidth="1"/>
+    <col min="5" max="5" width="10.6814814814815" customWidth="1"/>
+    <col min="6" max="1025" width="9.34074074074074" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11333,13 +11401,25 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>580</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>581</v>
+      </c>
+      <c r="D3" t="s">
+        <v>582</v>
+      </c>
+      <c r="E3" t="s">
+        <v>583</v>
+      </c>
+      <c r="F3" t="s">
+        <v>584</v>
+      </c>
+      <c r="G3" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -11351,7 +11431,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:7">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>262</v>
@@ -11359,11 +11439,23 @@
       <c r="C5" s="2" t="s">
         <v>263</v>
       </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>181</v>
@@ -11372,13 +11464,13 @@
     <row r="7" spans="1:3">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:7">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>315</v>
@@ -11386,8 +11478,20 @@
       <c r="C8" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>14049</v>
+      </c>
+      <c r="G8">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>318</v>
@@ -11395,8 +11499,17 @@
       <c r="C9" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>1525</v>
+      </c>
+      <c r="G9">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>321</v>
@@ -11404,8 +11517,20 @@
       <c r="C10" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>333</v>
@@ -11413,47 +11538,107 @@
       <c r="C11" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>1760</v>
+      </c>
+      <c r="G12">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>591</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>23</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>125</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>390</v>
@@ -11462,25 +11647,37 @@
     <row r="17" spans="1:3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>281</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>272</v>
@@ -11489,52 +11686,88 @@
     <row r="20" spans="1:3">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:7">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>74</v>
+      </c>
+      <c r="E21">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>16784</v>
+      </c>
+      <c r="G21">
+        <v>4938</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>82</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>6097</v>
+      </c>
+      <c r="G22">
+        <v>6184</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:7">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>82</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>428</v>
@@ -11543,7 +11776,7 @@
     <row r="26" spans="1:3">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>256</v>
@@ -11552,13 +11785,13 @@
     <row r="27" spans="1:3">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:7">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>482</v>
@@ -11566,71 +11799,117 @@
       <c r="C28" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>87</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>611</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>288</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>278</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>15</v>
+      </c>
+      <c r="G33">
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>614</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>581</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -11650,7 +11929,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>580</v>
@@ -11659,7 +11938,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:7">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
         <v>92</v>
@@ -11667,32 +11946,62 @@
       <c r="C40" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>9</v>
+      </c>
+      <c r="F40">
+        <v>34</v>
+      </c>
+      <c r="G40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>272</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:7">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>278</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>15</v>
+      </c>
+      <c r="G43">
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -11707,13 +12016,13 @@
     <row r="45" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -11728,7 +12037,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>580</v>
@@ -11767,7 +12076,7 @@
     <row r="52" spans="1:3">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>272</v>
@@ -11776,7 +12085,7 @@
     <row r="53" spans="1:3">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>549</v>
@@ -11792,7 +12101,7 @@
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="2" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>106</v>
@@ -11801,7 +12110,7 @@
     <row r="56" spans="1:3">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>106</v>
@@ -11810,13 +12119,13 @@
     <row r="57" spans="1:4">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="58" spans="2:3">
@@ -11830,7 +12139,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>580</v>
@@ -11878,7 +12187,7 @@
     <row r="65" spans="1:3">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>87</v>
@@ -11887,7 +12196,7 @@
     <row r="66" spans="1:3">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>174</v>
@@ -11911,7 +12220,7 @@
         <v>200</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -11946,7 +12255,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>580</v>
@@ -11957,7 +12266,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>255</v>
@@ -12005,7 +12314,7 @@
     <row r="81" spans="1:3">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>269</v>
@@ -12014,7 +12323,7 @@
     <row r="82" spans="1:3">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>281</v>
@@ -12050,7 +12359,7 @@
     <row r="86" spans="1:3">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>87</v>
@@ -12059,7 +12368,7 @@
     <row r="87" spans="1:3">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>281</v>
@@ -12077,7 +12386,7 @@
     <row r="89" spans="1:3">
       <c r="A89" s="2"/>
       <c r="B89" s="2" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>241</v>
@@ -12086,7 +12395,7 @@
     <row r="90" spans="1:3">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>87</v>
@@ -12122,7 +12431,7 @@
     <row r="94" spans="1:3">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>82</v>
@@ -12149,7 +12458,7 @@
     <row r="97" spans="1:3">
       <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>379</v>
@@ -12248,7 +12557,7 @@
     <row r="108" spans="1:3">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>138</v>
@@ -12410,7 +12719,7 @@
     <row r="126" spans="1:3">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>519</v>
@@ -12419,7 +12728,7 @@
     <row r="127" spans="1:3">
       <c r="A127" s="2"/>
       <c r="B127" s="2" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>284</v>
@@ -12473,25 +12782,25 @@
     <row r="133" spans="1:3">
       <c r="A133" s="2"/>
       <c r="B133" s="2" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2"/>
       <c r="B135" s="4" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>200</v>
@@ -12509,7 +12818,7 @@
     <row r="137" spans="1:3">
       <c r="A137" s="2"/>
       <c r="B137" s="2" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>278</v>
@@ -12518,7 +12827,7 @@
     <row r="138" spans="1:3">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>281</v>
@@ -12554,7 +12863,7 @@
     <row r="142" spans="1:3">
       <c r="A142" s="2"/>
       <c r="B142" s="2" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>82</v>
@@ -12599,7 +12908,7 @@
     <row r="147" spans="1:3">
       <c r="A147" s="2"/>
       <c r="B147" s="2" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>93</v>
@@ -12641,7 +12950,7 @@
         <v>190</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -12651,7 +12960,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>580</v>
@@ -12663,7 +12972,7 @@
     <row r="154" spans="1:3">
       <c r="A154" s="2"/>
       <c r="B154" s="2" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>278</v>
@@ -12681,7 +12990,7 @@
     <row r="156" spans="1:3">
       <c r="A156" s="2"/>
       <c r="B156" s="2" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>82</v>
@@ -12726,7 +13035,7 @@
     <row r="161" spans="1:3">
       <c r="A161" s="2"/>
       <c r="B161" s="2" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>82</v>
@@ -12744,7 +13053,7 @@
     <row r="163" spans="1:3">
       <c r="A163" s="2"/>
       <c r="B163" s="2" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>82</v>
@@ -12753,7 +13062,7 @@
     <row r="164" spans="1:3">
       <c r="A164" s="2"/>
       <c r="B164" s="2" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>278</v>
@@ -12762,7 +13071,7 @@
     <row r="165" spans="1:4">
       <c r="A165" s="2"/>
       <c r="B165" s="2" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>138</v>
@@ -12772,7 +13081,7 @@
     <row r="166" spans="1:3">
       <c r="A166" s="2"/>
       <c r="B166" s="2" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>278</v>
@@ -12781,7 +13090,7 @@
     <row r="167" spans="1:3">
       <c r="A167" s="2"/>
       <c r="B167" s="2" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>281</v>
@@ -12790,7 +13099,7 @@
     <row r="168" spans="1:3">
       <c r="A168" s="2"/>
       <c r="B168" s="2" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>82</v>
@@ -12799,16 +13108,16 @@
     <row r="169" spans="1:3">
       <c r="A169" s="2"/>
       <c r="B169" s="2" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="2"/>
       <c r="B170" s="2" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>87</v>
@@ -12817,7 +13126,7 @@
     <row r="171" spans="1:3">
       <c r="A171" s="2"/>
       <c r="B171" s="2" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>82</v>
@@ -12826,7 +13135,7 @@
     <row r="172" spans="1:3">
       <c r="A172" s="2"/>
       <c r="B172" s="2" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>204</v>
@@ -12835,7 +13144,7 @@
     <row r="173" spans="1:3">
       <c r="A173" s="2"/>
       <c r="B173" s="2" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>345</v>
@@ -12844,7 +13153,7 @@
     <row r="174" spans="1:3">
       <c r="A174" s="2"/>
       <c r="B174" s="2" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>281</v>
@@ -12853,7 +13162,7 @@
     <row r="175" spans="1:3">
       <c r="A175" s="2"/>
       <c r="B175" s="2" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>412</v>
@@ -12862,7 +13171,7 @@
     <row r="176" spans="1:3">
       <c r="A176" s="2"/>
       <c r="B176" s="2" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>272</v>
@@ -12871,7 +13180,7 @@
     <row r="177" spans="1:3">
       <c r="A177" s="2"/>
       <c r="B177" s="2" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>281</v>
@@ -12880,7 +13189,7 @@
     <row r="178" spans="1:3">
       <c r="A178" s="2"/>
       <c r="B178" s="2" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>82</v>
@@ -12889,7 +13198,7 @@
     <row r="179" spans="1:3">
       <c r="A179" s="2"/>
       <c r="B179" s="2" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>233</v>
@@ -12898,7 +13207,7 @@
     <row r="180" spans="1:3">
       <c r="A180" s="2"/>
       <c r="B180" s="2" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>256</v>
@@ -12907,7 +13216,7 @@
     <row r="181" spans="1:3">
       <c r="A181" s="2"/>
       <c r="B181" s="2" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>284</v>
@@ -12925,7 +13234,7 @@
     <row r="183" spans="1:3">
       <c r="A183" s="2"/>
       <c r="B183" s="4" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>82</v>
@@ -12976,7 +13285,7 @@
         <v>129</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -12996,7 +13305,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>580</v>
@@ -13044,7 +13353,7 @@
     <row r="197" spans="1:3">
       <c r="A197" s="2"/>
       <c r="B197" s="2" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>93</v>
@@ -13053,7 +13362,7 @@
     <row r="198" spans="1:3">
       <c r="A198" s="2"/>
       <c r="B198" s="2" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>87</v>
@@ -13071,7 +13380,7 @@
     <row r="200" spans="1:3">
       <c r="A200" s="2"/>
       <c r="B200" s="2" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>204</v>
@@ -13098,7 +13407,7 @@
     <row r="203" spans="1:3">
       <c r="A203" s="2"/>
       <c r="B203" s="2" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>82</v>
@@ -13143,7 +13452,7 @@
     <row r="208" spans="1:3">
       <c r="A208" s="2"/>
       <c r="B208" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>138</v>
@@ -13179,7 +13488,7 @@
     <row r="212" spans="1:3">
       <c r="A212" s="2"/>
       <c r="B212" s="2" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>233</v>
@@ -13200,13 +13509,13 @@
         <v>533</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2"/>
       <c r="B215" s="4" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>82</v>
@@ -13221,7 +13530,7 @@
         <v>281</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -13256,7 +13565,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>580</v>
@@ -13286,7 +13595,7 @@
     <row r="226" spans="1:3">
       <c r="A226" s="2"/>
       <c r="B226" s="2" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>87</v>
@@ -13295,7 +13604,7 @@
     <row r="227" spans="1:3">
       <c r="A227" s="2"/>
       <c r="B227" s="2" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>241</v>
@@ -13328,7 +13637,7 @@
         <v>200</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -13343,7 +13652,7 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>580</v>
@@ -13355,7 +13664,7 @@
     <row r="234" spans="1:3">
       <c r="A234" s="2"/>
       <c r="B234" s="2" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>138</v>
@@ -13409,7 +13718,7 @@
     <row r="240" spans="1:3">
       <c r="A240" s="2"/>
       <c r="B240" s="2" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>353</v>
@@ -13445,7 +13754,7 @@
     <row r="244" spans="1:3">
       <c r="A244" s="2"/>
       <c r="B244" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>353</v>
@@ -13472,7 +13781,7 @@
     <row r="247" spans="1:3">
       <c r="A247" s="2"/>
       <c r="B247" s="4" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>82</v>
@@ -13481,7 +13790,7 @@
     <row r="248" spans="1:3">
       <c r="A248" s="2"/>
       <c r="B248" s="2" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>281</v>
@@ -13508,7 +13817,7 @@
     <row r="251" spans="1:3">
       <c r="A251" s="2"/>
       <c r="B251" s="4" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>549</v>
@@ -13517,7 +13826,7 @@
     <row r="252" spans="1:3">
       <c r="A252" s="2"/>
       <c r="B252" s="2" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>284</v>
@@ -13526,7 +13835,7 @@
     <row r="253" spans="1:3">
       <c r="A253" s="2"/>
       <c r="B253" s="2" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>82</v>
@@ -13553,7 +13862,7 @@
     <row r="256" spans="1:3">
       <c r="A256" s="2"/>
       <c r="B256" s="2" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>278</v>
@@ -13562,7 +13871,7 @@
     <row r="257" spans="1:3">
       <c r="A257" s="2"/>
       <c r="B257" s="2" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>281</v>
@@ -13667,7 +13976,7 @@
         <v>190</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="269" spans="1:1">
